--- a/biology/Zoologie/Blauneria_heteroclita/Blauneria_heteroclita.xlsx
+++ b/biology/Zoologie/Blauneria_heteroclita/Blauneria_heteroclita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blauneria heteroclita est une espèce d'escargots terrestres de petite taille de la famille des Ellobiidae, présent sur les rivages de mangrove des littoraux de l’Atlantique ouest.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Blauneria heteroclita a été décrite pour la première fois en 1808 par le zoologiste britannique George Montagu (1753–1815) sous le protonyme Voluta heteroclita[1],[2] et avec pour localité type Matanzas à Cuba.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Blauneria heteroclita a été décrite pour la première fois en 1808 par le zoologiste britannique George Montagu (1753–1815) sous le protonyme Voluta heteroclita, et avec pour localité type Matanzas à Cuba.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La coquille est haute au plus de 7 mm, allongée, fragile, transparente à translucide, brillante, blanchâtre, senestre. La spire peut compter jusqu’à neuf tours à profil rectiligne ou légèrement convexe portant de très discrète stries spirales qu’entrecoupent des lignes de croissances irrégulières. Le dernier tour de coquille représente 60% de la hauteur de coquille chez les spécimens âgés, et 70 à 75% chez les spécimens jeunes. 
 L’ouverture représente 70% de la hauteur du dernier tour. Elle est ovale allongée, avec une lèvre interne légèrement canaliculée à sa base et une petite dent columellaire très oblique. Une dent pariétale oblique est également présente sur ce bord interne, située à mi-hauteur de l’ouverture. Le bord externe est aigu, lisse sur son côté intérieur.
-Le protoconque est lisse, bien développé, avec un à un tour et demi visible, l’enroulement dégageant une perforation semblable à un ombilic à l’apex de la coquille[3].
+Le protoconque est lisse, bien développé, avec un à un tour et demi visible, l’enroulement dégageant une perforation semblable à un ombilic à l’apex de la coquille.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Blauneria heteroclita est de distribution tropicale à subtropicale ouest-atlantique. L’espèce se rencontrent sur les littoraux des pays et régions suivantes[3],[4],[5],[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blauneria heteroclita est de distribution tropicale à subtropicale ouest-atlantique. L’espèce se rencontrent sur les littoraux des pays et régions suivantes :
 Alabama,
 Bahamas,
 Bermudes,
@@ -592,7 +610,7 @@
 Saint Thomas,
 Texas,
 Yucatan.
-Quelques coquilles ont été collectées historiquement en Écosse, mais sont supposées avoir été apportées dans cette région par le déballastage de navires provenant des Antilles[3].
+Quelques coquilles ont été collectées historiquement en Écosse, mais sont supposées avoir été apportées dans cette région par le déballastage de navires provenant des Antilles.
 </t>
         </is>
       </c>
@@ -621,10 +639,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Blauneria heteroclita est un escargot terrestre limité à la zone supratidale des mangroves où il est habituellement enfoui dans le sédiment meuble sous les cailloux, les bois en décomposition ou les racines des propagules de palétuvier. Il y est fréquemment associé à d'autres espèces d'Ellobiidae des genres Laemodonta, Creedonia ou Microtralia[3].
-En Guadeloupe, cette espèce est observée parmi les cailloux et autres débris organiques jonchant le sol argileux en bordure des mangroves à Avicenia. Elle est également observé dans le sable humide, sur des fragments échoués de coraux, juste au dessus de la ligne d'eau[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blauneria heteroclita est un escargot terrestre limité à la zone supratidale des mangroves où il est habituellement enfoui dans le sédiment meuble sous les cailloux, les bois en décomposition ou les racines des propagules de palétuvier. Il y est fréquemment associé à d'autres espèces d'Ellobiidae des genres Laemodonta, Creedonia ou Microtralia.
+En Guadeloupe, cette espèce est observée parmi les cailloux et autres débris organiques jonchant le sol argileux en bordure des mangroves à Avicenia. Elle est également observé dans le sable humide, sur des fragments échoués de coraux, juste au dessus de la ligne d'eau.
 </t>
         </is>
       </c>
@@ -653,7 +673,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>George Montagu, Supplement to Testacea Britannica with additional plates, 1808, 183 p. (lire en ligne)</t>
         </is>
